--- a/results/predictions/Camping in an Abandoned WWII Army Base in Remote Alaskan Rainforest.xlsx
+++ b/results/predictions/Camping in an Abandoned WWII Army Base in Remote Alaskan Rainforest.xlsx
@@ -4569,12 +4569,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>00:07:49</t>
+          <t>00:07:48</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>There's stellar Sea lions down there.</t>
+          <t>There's stellar.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>admiration</t>
+          <t>approval</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4596,17 +4596,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>00:07:51</t>
+          <t>00:07:48</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>00:07:52</t>
+          <t>00:07:49</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>Sea lions down there.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4628,81 +4628,81 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>00:07:51</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
           <t>00:07:52</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>00:07:53</t>
-        </is>
-      </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>That is insane.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>00:07:52</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>00:07:53</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>00:07:57</t>
-        </is>
-      </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>I think I could throw a rock from the top of this island all the way into the ocean.</t>
+          <t>That is insane.</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>00:07:53</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t>00:07:57</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>00:08:00</t>
-        </is>
-      </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>There's a reason why they call it Rugged Island.</t>
+          <t>I think I could throw a rock from the top of this island all the way into the ocean.</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4724,27 +4724,27 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>00:07:57</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
           <t>00:08:00</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>00:08:02</t>
-        </is>
-      </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>We went up the nice part.</t>
+          <t>There's a reason why they call it Rugged Island.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4756,27 +4756,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>00:08:04</t>
+          <t>00:08:00</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>00:08:14</t>
+          <t>00:08:02</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>I'm not really sure where the fort is on this island, but the ocean's there, the ocean's there, and we run out of island that way, so it must be that way.</t>
+          <t>We went up the nice part.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4788,27 +4788,27 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>00:08:17</t>
+          <t>00:08:04</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>00:08:19</t>
+          <t>00:08:14</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Look at these salmonberry bushes.</t>
+          <t>I'm not really sure where the fort is on this island, but the ocean's there, the ocean's there, and we run out of island that way, so it must be that way.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4820,17 +4820,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>00:08:20</t>
+          <t>00:08:17</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>00:08:24</t>
+          <t>00:08:19</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Come back here in a month or two and this place would be crawling with big juicy salmonberries.</t>
+          <t>Look at these salmonberry bushes.</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4852,27 +4852,27 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>00:08:26</t>
+          <t>00:08:20</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>00:08:33</t>
+          <t>00:08:24</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>I'm not sure how long it's been since people were on this trail, but I've seen no footprints, no broken branches, no signs of life.</t>
+          <t>Come back here in a month or two and this place would be crawling with big juicy salmonberries.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4884,27 +4884,27 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>00:08:26</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
           <t>00:08:33</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>00:08:35</t>
-        </is>
-      </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Luckily, it's pretty hard to get lost.</t>
+          <t>I'm not sure how long it's been since people were on this trail, but I've seen no footprints, no broken branches, no signs of life.</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4916,27 +4916,27 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>00:08:33</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
           <t>00:08:35</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>00:08:39</t>
-        </is>
-      </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>I can see the boundaries of the old road pretty clearly.</t>
+          <t>Luckily, it's pretty hard to get lost.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pride</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4948,27 +4948,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>00:08:35</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
           <t>00:08:39</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>00:08:40</t>
-        </is>
-      </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Oh, look at this, Tom.</t>
+          <t>I can see the boundaries of the old road pretty clearly.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4980,27 +4980,27 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
+          <t>00:08:39</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
           <t>00:08:40</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>00:08:40</t>
-        </is>
-      </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>I see a structure.</t>
+          <t>Oh, look at this, Tom.</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5012,27 +5012,27 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>00:08:41</t>
+          <t>00:08:40</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>00:08:43</t>
+          <t>00:08:40</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Yeah, there's a concrete bunker right over there.</t>
+          <t>I see a structure.</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5044,17 +5044,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>00:08:41</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
           <t>00:08:43</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>00:08:45</t>
-        </is>
-      </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Hey, Tom, you got your flashlight?</t>
+          <t>Yeah, there's a concrete bunker right over there.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5076,17 +5076,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>00:08:43</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
           <t>00:08:45</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>00:08:45</t>
-        </is>
-      </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Hey, Tom, you got your flashlight?</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5113,12 +5113,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>00:08:46</t>
+          <t>00:08:45</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>All right.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5140,12 +5140,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>00:08:45</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
           <t>00:08:46</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>00:08:47</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5172,17 +5172,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>00:08:48</t>
+          <t>00:08:46</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>00:08:49</t>
+          <t>00:08:47</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>All right.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5204,17 +5204,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>00:08:50</t>
+          <t>00:08:48</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>00:08:51</t>
+          <t>00:08:49</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Oh, yeah.</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5236,7 +5236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>00:08:51</t>
+          <t>00:08:50</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Little table.</t>
+          <t>Oh, yeah, Little table.</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6297,22 +6297,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>00:10:41</t>
+          <t>00:10:39</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Yep, That's a pair of military boots.</t>
+          <t>Yep.</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6324,27 +6324,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>00:10:39</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
           <t>00:10:41</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>00:10:42</t>
-        </is>
-      </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Look at that.</t>
+          <t>That's a pair of military boots.</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6356,27 +6356,27 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>00:10:41</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
           <t>00:10:42</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>00:10:43</t>
-        </is>
-      </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>They're steel toed.</t>
+          <t>Look at that.</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6388,27 +6388,27 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>00:10:44</t>
+          <t>00:10:42</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>00:10:45</t>
+          <t>00:10:43</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Oh, check it out.</t>
+          <t>They're steel toed.</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6420,27 +6420,27 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>00:10:44</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
           <t>00:10:45</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>00:10:46</t>
-        </is>
-      </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>This is the Coast Guard beacon.</t>
+          <t>Oh, check it out.</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6452,27 +6452,27 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>00:10:48</t>
+          <t>00:10:45</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>00:10:50</t>
+          <t>00:10:46</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Oh, there's a ladder.</t>
+          <t>This is the Coast Guard beacon.</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6484,27 +6484,27 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
+          <t>00:10:48</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
           <t>00:10:50</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>00:10:51</t>
-        </is>
-      </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Yeah, I'll go first.</t>
+          <t>Oh, there's a ladder.</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6516,17 +6516,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>00:10:50</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
           <t>00:10:51</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>00:10:52</t>
-        </is>
-      </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Yeah, it is.</t>
+          <t>Yeah, I'll go first.</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6548,27 +6548,27 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
+          <t>00:10:51</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
           <t>00:10:52</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>00:10:52</t>
-        </is>
-      </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Sorry.</t>
+          <t>Yeah, it is.</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>sadness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>disappointment</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6580,27 +6580,27 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>00:11:00</t>
+          <t>00:10:52</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>00:11:01</t>
+          <t>00:10:52</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Check this out.</t>
+          <t>Sorry.</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>sadness</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>disappointment</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6612,27 +6612,27 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
+          <t>00:11:00</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
           <t>00:11:01</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>00:11:02</t>
-        </is>
-      </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>No way.</t>
+          <t>Check this out.</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6644,12 +6644,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>00:11:03</t>
+          <t>00:11:01</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>00:11:04</t>
+          <t>00:11:02</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6676,49 +6676,49 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>00:11:06</t>
+          <t>00:11:03</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>00:11:07</t>
+          <t>00:11:04</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>It's beautiful.</t>
+          <t>No way.</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>admiration</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
+          <t>00:11:06</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
           <t>00:11:07</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>00:11:08</t>
-        </is>
-      </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Isn't that pretty?</t>
+          <t>It's beautiful.</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6728,39 +6728,39 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>admiration</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>00:11:10</t>
+          <t>00:11:07</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>00:11:10</t>
+          <t>00:11:08</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Oh, dang.</t>
+          <t>Isn't that pretty?</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>realization</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6777,22 +6777,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>00:11:14</t>
+          <t>00:11:10</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>There's like a what A Fabulous spot for an observation post.</t>
+          <t>Oh, dang.</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>realization</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -6804,155 +6804,155 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>00:11:17</t>
+          <t>00:11:10</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>00:11:19</t>
+          <t>00:11:14</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>The concrete for that is gone.</t>
+          <t>There's like a what A Fabulous spot for an observation post.</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>sadness</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>remorse</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
+          <t>00:11:17</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
           <t>00:11:19</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>00:11:22</t>
-        </is>
-      </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Oh, that's just hanging out over the cliff.</t>
+          <t>The concrete for that is gone.</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>sadness</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>remorse</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
+          <t>00:11:19</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
           <t>00:11:22</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>00:11:23</t>
-        </is>
-      </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Damn.</t>
+          <t>Oh, that's just hanging out over the cliff.</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>anger</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>annoyance</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>00:11:27</t>
+          <t>00:11:22</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>00:11:37</t>
+          <t>00:11:23</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>I wonder what other stuff we want to not realize that higher up though, some sort of tin structure.</t>
+          <t>Damn.</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>anger</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>caring</t>
+          <t>annoyance</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>00:11:38</t>
+          <t>00:11:27</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>00:11:40</t>
+          <t>00:11:37</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Well, this trail keeps on going.</t>
+          <t>I wonder what other stuff we want to not realize that higher up though, some sort of tin structure.</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>anger</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>annoyance</t>
+          <t>caring</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -6964,27 +6964,27 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
+          <t>00:11:38</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
           <t>00:11:40</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>00:11:43</t>
-        </is>
-      </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Oh, look at this.</t>
+          <t>Well, this trail keeps on going.</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anger</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>annoyance</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -6996,27 +6996,27 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>00:11:44</t>
+          <t>00:11:40</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>00:11:46</t>
+          <t>00:11:43</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>This is an old military cot.</t>
+          <t>Oh, look at this.</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7028,17 +7028,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>00:11:47</t>
+          <t>00:11:44</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>00:11:48</t>
+          <t>00:11:46</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Yeah, this is.</t>
+          <t>This is an old military cot.</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -7060,17 +7060,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
+          <t>00:11:47</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
           <t>00:11:48</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>00:11:51</t>
-        </is>
-      </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>This is the piece to a military bed.</t>
+          <t>Yeah, this is.</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7092,27 +7092,27 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
+          <t>00:11:48</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
           <t>00:11:51</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>00:11:53</t>
-        </is>
-      </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Oh, it's so hard to see anything in these woods.</t>
+          <t>This is the piece to a military bed.</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>anger</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>annoyance</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7124,81 +7124,81 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
+          <t>00:11:51</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
           <t>00:11:53</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>00:11:56</t>
-        </is>
-      </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>We could be walking past dozens of these buildings and not even know it.</t>
+          <t>Oh, it's so hard to see anything in these woods.</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>anger</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>embarrassment</t>
+          <t>annoyance</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>00:11:58</t>
+          <t>00:11:53</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>00:12:00</t>
+          <t>00:11:56</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Trail has pottery right there.</t>
+          <t>We could be walking past dozens of these buildings and not even know it.</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>approval</t>
+          <t>embarrassment</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>00:12:01</t>
+          <t>00:11:58</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>00:12:02</t>
+          <t>00:12:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Oh, you know what this is?</t>
+          <t>Trail has pottery right there.</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>caring</t>
+          <t>approval</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7220,27 +7220,27 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
+          <t>00:12:01</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
           <t>00:12:02</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>00:12:03</t>
-        </is>
-      </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>This is a washtub.</t>
+          <t>Oh, you know what this is?</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>caring</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7252,17 +7252,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>00:12:05</t>
+          <t>00:12:02</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>00:12:05</t>
+          <t>00:12:03</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>This is a washtub.</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7284,17 +7284,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>00:12:06</t>
+          <t>00:12:05</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>00:12:07</t>
+          <t>00:12:05</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Yeah, it's a bowl.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7316,17 +7316,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
+          <t>00:12:06</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
           <t>00:12:07</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>00:12:09</t>
-        </is>
-      </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>I think that's where they did their dishes.</t>
+          <t>Yeah, it's a bowl.</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7348,17 +7348,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
+          <t>00:12:07</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
           <t>00:12:09</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>00:12:10</t>
-        </is>
-      </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Yeah, it could have been.</t>
+          <t>I think that's where they did their dishes.</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7380,27 +7380,27 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>00:12:11</t>
+          <t>00:12:09</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>00:12:12</t>
+          <t>00:12:10</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Could have been where they did their dishes.</t>
+          <t>Yeah, it could have been.</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -7412,27 +7412,27 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
+          <t>00:12:11</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
           <t>00:12:12</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>00:12:13</t>
-        </is>
-      </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Look at that.</t>
+          <t>Could have been where they did their dishes.</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7444,27 +7444,27 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>00:12:15</t>
+          <t>00:12:12</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>00:12:17</t>
+          <t>00:12:13</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Yeah, there's a whole building.</t>
+          <t>Look at that.</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7476,17 +7476,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>00:12:19</t>
+          <t>00:12:15</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>00:12:23</t>
+          <t>00:12:17</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>You can see almost all of these trees have grown since the base was here.</t>
+          <t>Yeah, there's a whole building.</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7508,27 +7508,27 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>00:12:26</t>
+          <t>00:12:19</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>00:12:30</t>
+          <t>00:12:23</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>We found some cool stuff, Tom, but we haven't found the artillery placement.</t>
+          <t>You can see almost all of these trees have grown since the base was here.</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -7540,17 +7540,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
+          <t>00:12:26</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
           <t>00:12:30</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>00:12:35</t>
-        </is>
-      </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Whole point of these military bases was to put an artillery piece on top of these islands and.</t>
+          <t>We found some cool stuff, Tom, but we haven't found the artillery placement.</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7560,39 +7560,39 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>admiration</t>
+          <t>pride</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
+          <t>00:12:30</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
           <t>00:12:35</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>00:12:38</t>
-        </is>
-      </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>And shoot enemy ships that were trying to enter the bay.</t>
+          <t>Whole point of these military bases was to put an artillery piece on top of these islands and.</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>nervousness</t>
+          <t>admiration</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -7604,49 +7604,49 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
+          <t>00:12:35</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
           <t>00:12:38</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>00:12:39</t>
-        </is>
-      </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Check it out.</t>
+          <t>And shoot enemy ships that were trying to enter the bay.</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>nervousness</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
+          <t>00:12:38</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
           <t>00:12:39</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>00:12:40</t>
-        </is>
-      </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>There's all these.</t>
+          <t>Check it out.</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7668,27 +7668,27 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
+          <t>00:12:39</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
           <t>00:12:40</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>00:12:42</t>
-        </is>
-      </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Look at all these wires.</t>
+          <t>There's all these.</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>anger</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>annoyance</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -7700,27 +7700,27 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
+          <t>00:12:40</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
           <t>00:12:42</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>00:12:43</t>
-        </is>
-      </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Well, they moved them out.</t>
+          <t>Look at all these wires.</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>sadness</t>
+          <t>anger</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>disappointment</t>
+          <t>annoyance</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -7732,27 +7732,27 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>00:12:44</t>
+          <t>00:12:42</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>00:12:45</t>
+          <t>00:12:43</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>So there must be something up there.</t>
+          <t>Well, they moved them out.</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>sadness</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>approval</t>
+          <t>disappointment</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -7764,27 +7764,27 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
+          <t>00:12:44</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
           <t>00:12:45</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>00:12:53</t>
-        </is>
-      </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>If we follow the wire, this road off to the roof.</t>
+          <t>So there must be something up there.</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>approval</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -7796,17 +7796,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>00:12:56</t>
+          <t>00:12:45</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>00:12:58</t>
+          <t>00:12:53</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>There's a lot of wood here.</t>
+          <t>If we follow the wire, this road off to the roof.</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7828,17 +7828,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
+          <t>00:12:56</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
           <t>00:12:58</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>00:12:58</t>
-        </is>
-      </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Rotten wood.</t>
+          <t>There's a lot of wood here.</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7865,44 +7865,44 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>00:13:02</t>
+          <t>00:12:58</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>I think we're standing on the collapsed roof of a wooden structure.</t>
+          <t>Rotten wood.</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
+          <t>00:12:58</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
           <t>00:13:02</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>00:13:04</t>
-        </is>
-      </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>And that concrete is the foundation.</t>
+          <t>I think we're standing on the collapsed roof of a wooden structure.</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7917,34 +7917,34 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
+          <t>00:13:02</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
           <t>00:13:04</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>00:13:06</t>
-        </is>
-      </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>And this right here, this is the roof.</t>
+          <t>And that concrete is the foundation.</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -7956,17 +7956,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
+          <t>00:13:04</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
           <t>00:13:06</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>00:13:07</t>
-        </is>
-      </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>What's left of the roof.</t>
+          <t>And this right here, this is the roof.</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7988,17 +7988,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>00:13:11</t>
+          <t>00:13:06</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>00:13:11</t>
+          <t>00:13:07</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Careful.</t>
+          <t>What's left of the roof.</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8025,22 +8025,22 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>00:13:12</t>
+          <t>00:13:11</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>This is deep.</t>
+          <t>Careful.</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8052,17 +8052,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
+          <t>00:13:11</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
           <t>00:13:12</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>00:13:13</t>
-        </is>
-      </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Oh, you fell.</t>
+          <t>This is deep.</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -8084,27 +8084,27 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>00:13:16</t>
+          <t>00:13:12</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>00:13:16</t>
+          <t>00:13:13</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>All right.</t>
+          <t>Oh, you fell.</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8116,27 +8116,27 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>00:13:19</t>
+          <t>00:13:16</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>00:13:20</t>
+          <t>00:13:16</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Look at this, Tom.</t>
+          <t>All right.</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -8148,27 +8148,27 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>00:13:21</t>
+          <t>00:13:19</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>00:13:24</t>
+          <t>00:13:20</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>This is a insulator for power lines.</t>
+          <t>Look at this, Tom.</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>disapproval</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8180,27 +8180,27 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
+          <t>00:13:21</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
           <t>00:13:24</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>00:13:24</t>
-        </is>
-      </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>This is a insulator for power lines.</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>disapproval</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8217,12 +8217,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>00:13:25</t>
+          <t>00:13:24</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>So there's power cables.</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8244,17 +8244,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
+          <t>00:13:24</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
           <t>00:13:25</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>00:13:27</t>
-        </is>
-      </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>They're going further up the hill.</t>
+          <t>So there's power cables.</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -8276,17 +8276,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
+          <t>00:13:25</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
           <t>00:13:27</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>00:13:28</t>
-        </is>
-      </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>There's more up there.</t>
+          <t>They're going further up the hill.</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -8308,27 +8308,27 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>00:13:30</t>
+          <t>00:13:27</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>00:13:31</t>
+          <t>00:13:28</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Got a little M.</t>
+          <t>There's more up there.</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -8340,27 +8340,27 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
+          <t>00:13:30</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
           <t>00:13:31</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>00:13:31</t>
-        </is>
-      </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>M brake.</t>
+          <t>Got a little M.</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -8372,17 +8372,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>00:13:33</t>
+          <t>00:13:31</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>00:13:34</t>
+          <t>00:13:31</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Dead tax.</t>
+          <t>M brake.</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -8404,27 +8404,27 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>00:13:38</t>
+          <t>00:13:33</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>00:13:39</t>
+          <t>00:13:34</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Look at this.</t>
+          <t>Dead tax.</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -8436,27 +8436,27 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
+          <t>00:13:38</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
           <t>00:13:39</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>00:13:39</t>
-        </is>
-      </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Tov.</t>
+          <t>Look at this.</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -8468,27 +8468,27 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>00:13:40</t>
+          <t>00:13:39</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>00:13:42</t>
+          <t>00:13:39</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>That's a tread to like a bulldozer or a tank right there.</t>
+          <t>Tov.</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -8500,27 +8500,27 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>00:13:46</t>
+          <t>00:13:40</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>00:13:47</t>
+          <t>00:13:42</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>There's a big open flat spot.</t>
+          <t>That's a tread to like a bulldozer or a tank right there.</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -8532,27 +8532,27 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
+          <t>00:13:46</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
           <t>00:13:47</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>00:13:51</t>
-        </is>
-      </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>There isn't a single flat spot on this island that isn't man made.</t>
+          <t>There's a big open flat spot.</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -8564,27 +8564,27 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>00:13:53</t>
+          <t>00:13:47</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>00:13:54</t>
+          <t>00:13:51</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Oh, look at that.</t>
+          <t>There isn't a single flat spot on this island that isn't man made.</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -8596,27 +8596,27 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>00:13:55</t>
+          <t>00:13:53</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>00:13:55</t>
+          <t>00:13:54</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>This is it.</t>
+          <t>Oh, look at that.</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -8633,22 +8633,22 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>00:13:57</t>
+          <t>00:13:55</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>I think we found it.</t>
+          <t>This is it.</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -8660,27 +8660,27 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>00:13:58</t>
+          <t>00:13:55</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>00:13:59</t>
+          <t>00:13:57</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Yay.</t>
+          <t>I think we found it.</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>approval</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -8692,27 +8692,27 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
+          <t>00:13:58</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
           <t>00:13:59</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>00:14:00</t>
-        </is>
-      </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Here, grab my flashlight.</t>
+          <t>Yay.</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>approval</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -8724,27 +8724,27 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
+          <t>00:13:59</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
           <t>00:14:00</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>00:14:01</t>
-        </is>
-      </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Oh, look at this, Tom.</t>
+          <t>Here, grab my flashlight.</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -8756,27 +8756,27 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>00:14:04</t>
+          <t>00:14:00</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>00:14:05</t>
+          <t>00:14:01</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>That is pretty cool.</t>
+          <t>Oh, look at this, Tom.</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -8788,17 +8788,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
+          <t>00:14:04</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
           <t>00:14:05</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>00:14:06</t>
-        </is>
-      </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Is it?</t>
+          <t>That is pretty cool.</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>caring</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -8820,27 +8820,27 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
+          <t>00:14:05</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
           <t>00:14:06</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>00:14:07</t>
-        </is>
-      </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Look at this.</t>
+          <t>Is it?</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>caring</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -8852,27 +8852,27 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
+          <t>00:14:06</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
           <t>00:14:07</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>00:14:08</t>
-        </is>
-      </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>It's like the latches to the door.</t>
+          <t>Look at this.</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -8884,27 +8884,27 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>00:14:10</t>
+          <t>00:14:07</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>00:14:11</t>
+          <t>00:14:08</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Thomas, you ready to go explore?</t>
+          <t>It's like the latches to the door.</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -8916,27 +8916,27 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
+          <t>00:14:10</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
           <t>00:14:11</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>00:14:12</t>
-        </is>
-      </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Thomas, you ready to go explore?</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -8948,17 +8948,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
+          <t>00:14:11</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
           <t>00:14:12</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>00:14:13</t>
-        </is>
-      </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Let's go inside.</t>
+          <t>Yes.</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -8980,17 +8980,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
+          <t>00:14:12</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
           <t>00:14:13</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>00:14:16</t>
-        </is>
-      </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>See a used 1943.</t>
+          <t>Let's go inside.</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -9012,17 +9012,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>00:14:17</t>
+          <t>00:14:13</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>00:14:19</t>
+          <t>00:14:16</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>So that's two years before the end of World War II.</t>
+          <t>See a used 1943.</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -9044,17 +9044,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>00:14:20</t>
+          <t>00:14:17</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>00:14:22</t>
+          <t>00:14:19</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>All right, got your light?</t>
+          <t>So that's two years before the end of World War II.</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -9076,17 +9076,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>00:14:23</t>
+          <t>00:14:20</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>00:14:25</t>
+          <t>00:14:22</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>All right, let's go inside.</t>
+          <t>All right, got your light?</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -9108,27 +9108,27 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>00:14:28</t>
+          <t>00:14:23</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>00:14:28</t>
+          <t>00:14:25</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Watch out.</t>
+          <t>All right, let's go inside.</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>nervousness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -9145,86 +9145,86 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>00:14:30</t>
+          <t>00:14:28</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Oh, there's booby traps here.</t>
+          <t>Watch out.</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>nervousness</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>00:14:31</t>
+          <t>00:14:28</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>00:14:32</t>
+          <t>00:14:30</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Yeah, here's another.</t>
+          <t>Oh, there's booby traps here.</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>00:14:36</t>
+          <t>00:14:31</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>00:14:38</t>
+          <t>00:14:32</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Oh, there's like two dead foxes down here.</t>
+          <t>Yeah, here's another.</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -9236,27 +9236,27 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>00:14:39</t>
+          <t>00:14:36</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>00:14:39</t>
+          <t>00:14:38</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>Oh, there's like two dead foxes down here.</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -9273,22 +9273,22 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>00:14:41</t>
+          <t>00:14:39</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>I wonder if they just fell down there and got trapped.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>caring</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -9300,27 +9300,27 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
+          <t>00:14:39</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
           <t>00:14:41</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>00:14:44</t>
-        </is>
-      </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>What do you think that is how my light.</t>
+          <t>I wonder if they just fell down there and got trapped.</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>caring</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -9332,27 +9332,27 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
+          <t>00:14:41</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
           <t>00:14:44</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>00:14:45</t>
-        </is>
-      </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>I have to hold my light down.</t>
+          <t>What do you think that is how my light.</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -9364,17 +9364,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>00:14:46</t>
+          <t>00:14:44</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>00:14:48</t>
+          <t>00:14:45</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Okay, that's it.</t>
+          <t>I have to hold my light down.</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -9396,17 +9396,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
+          <t>00:14:46</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
           <t>00:14:48</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>00:14:49</t>
-        </is>
-      </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Could be even.</t>
+          <t>Okay, that's it.</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -9428,27 +9428,27 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
+          <t>00:14:48</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
           <t>00:14:49</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>00:14:51</t>
-        </is>
-      </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Oh, here's the big room.</t>
+          <t>Could be even.</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -9460,27 +9460,27 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
+          <t>00:14:49</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
           <t>00:14:51</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>00:14:51</t>
-        </is>
-      </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>Oh, here's the big room.</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -9497,12 +9497,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>00:14:52</t>
+          <t>00:14:51</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>There's another door in here.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -9524,27 +9524,27 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>00:14:53</t>
+          <t>00:14:51</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>00:14:54</t>
+          <t>00:14:52</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Hey, this place is big.</t>
+          <t>There's another door in here.</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -9556,27 +9556,27 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>00:14:55</t>
+          <t>00:14:53</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>00:14:56</t>
+          <t>00:14:54</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Dylan, fall down there.</t>
+          <t>Hey, this place is big.</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -9588,17 +9588,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
+          <t>00:14:55</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
           <t>00:14:56</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>00:14:57</t>
-        </is>
-      </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>There's a basement.</t>
+          <t>Dylan, fall down there.</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9620,27 +9620,27 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>00:14:58</t>
+          <t>00:14:56</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>00:14:59</t>
+          <t>00:14:57</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Oh, look at that.</t>
+          <t>There's a basement.</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -9652,17 +9652,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
+          <t>00:14:58</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
           <t>00:14:59</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>00:15:00</t>
-        </is>
-      </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Oh, there's stairs.</t>
+          <t>Oh, look at that.</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9684,81 +9684,81 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>00:15:02</t>
+          <t>00:14:59</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>00:15:04</t>
+          <t>00:15:00</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>This place is getting cool.</t>
+          <t>Oh, there's stairs.</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>00:15:07</t>
+          <t>00:15:02</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>00:15:09</t>
+          <t>00:15:04</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>I think these are sheets of, like, asbestos.</t>
+          <t>This place is getting cool.</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pride</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
+          <t>00:15:07</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
           <t>00:15:09</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>00:15:11</t>
-        </is>
-      </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>It's a kind of a fireproof insulation.</t>
+          <t>I think these are sheets of, like, asbestos.</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -9780,91 +9780,91 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
+          <t>00:15:09</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
           <t>00:15:11</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>00:15:13</t>
-        </is>
-      </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>But it's toxic, Gives you cancer.</t>
+          <t>It's a kind of a fireproof insulation.</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>disapproval</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>00:15:16</t>
+          <t>00:15:11</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>00:15:19</t>
+          <t>00:15:13</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>There's like, a big engine room, and there's tons of stuff in there.</t>
+          <t>But it's toxic, Gives you cancer.</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>disapproval</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>strong</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>00:15:23</t>
+          <t>00:15:16</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>00:15:24</t>
+          <t>00:15:19</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Look at this.</t>
+          <t>There's like, a big engine room, and there's tons of stuff in there.</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -9876,27 +9876,27 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>00:15:25</t>
+          <t>00:15:23</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>00:15:27</t>
+          <t>00:15:24</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>This is like a giant drafting table or something.</t>
+          <t>Look at this.</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -9908,17 +9908,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>00:15:28</t>
+          <t>00:15:25</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>00:15:29</t>
+          <t>00:15:27</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>This is a good.</t>
+          <t>This is like a giant drafting table or something.</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>approval</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -9940,27 +9940,27 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
+          <t>00:15:28</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
           <t>00:15:29</t>
         </is>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>00:15:31</t>
-        </is>
-      </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>That looks structural right there.</t>
+          <t>This is a good.</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>approval</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -9972,27 +9972,27 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>00:15:47</t>
+          <t>00:15:29</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>00:15:48</t>
+          <t>00:15:31</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Was that pretty cool?</t>
+          <t>That looks structural right there.</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -10004,27 +10004,27 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
+          <t>00:15:47</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
           <t>00:15:48</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>00:15:48</t>
-        </is>
-      </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Was that pretty cool?</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -10041,22 +10041,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>00:15:49</t>
+          <t>00:15:48</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Was that worth the hike?</t>
+          <t>Yes.</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>caring</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -10068,27 +10068,27 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>00:15:50</t>
+          <t>00:15:48</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>00:15:50</t>
+          <t>00:15:49</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Was that worth the hike?</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>caring</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -10100,17 +10100,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>00:15:52</t>
+          <t>00:15:50</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>00:15:52</t>
+          <t>00:15:50</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>Yes.</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -10137,22 +10137,22 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>00:15:53</t>
+          <t>00:15:52</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>You know what that is, Tommy?</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -10164,27 +10164,27 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>00:15:54</t>
+          <t>00:15:52</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>00:15:55</t>
+          <t>00:15:53</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>That looks like a cesspit.</t>
+          <t>You know what that is, Tommy?</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>disapproval</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -10196,81 +10196,81 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>00:15:56</t>
+          <t>00:15:54</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>00:15:58</t>
+          <t>00:15:55</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>That bust is through.</t>
+          <t>That looks like a cesspit.</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>realization</t>
+          <t>disapproval</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>00:16:02</t>
+          <t>00:15:56</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>00:16:03</t>
+          <t>00:15:58</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Tom, I found it.</t>
+          <t>That bust is through.</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>realization</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
+          <t>00:16:02</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
           <t>00:16:03</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>00:16:04</t>
-        </is>
-      </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Come here.</t>
+          <t>Tom, I found it.</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -10292,27 +10292,27 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>00:16:05</t>
+          <t>00:16:03</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>00:16:06</t>
+          <t>00:16:04</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>No way.</t>
+          <t>Come here.</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -10324,27 +10324,27 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
+          <t>00:16:05</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
           <t>00:16:06</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>00:16:07</t>
-        </is>
-      </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>No way.</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -10356,27 +10356,27 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
+          <t>00:16:06</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
           <t>00:16:07</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>00:16:08</t>
-        </is>
-      </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>See how it's round, Tom?</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -10388,17 +10388,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
+          <t>00:16:07</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
           <t>00:16:08</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>00:16:11</t>
-        </is>
-      </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>That's where the big turret spinny thing goes.</t>
+          <t>See how it's round, Tom?</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -10420,27 +10420,27 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
+          <t>00:16:08</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
           <t>00:16:11</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>00:16:12</t>
-        </is>
-      </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>That's where the big turret spinny thing goes.</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -10452,17 +10452,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
+          <t>00:16:11</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
           <t>00:16:12</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>00:16:14</t>
-        </is>
-      </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>They put the gun in the middle, and then they can turn.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -10484,81 +10484,81 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
+          <t>00:16:12</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
           <t>00:16:14</t>
         </is>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>00:16:19</t>
-        </is>
-      </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>They can spin it around any direction, and they could blast any enemy ship trying to come into resurrection bay.</t>
+          <t>They put the gun in the middle, and then they can turn.</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>embarrassment</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>00:16:22</t>
+          <t>00:16:14</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>00:16:24</t>
+          <t>00:16:19</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>So right now we're climbing on top of the big bunker.</t>
+          <t>They can spin it around any direction, and they could blast any enemy ship trying to come into resurrection bay.</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>embarrassment</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>00:16:25</t>
+          <t>00:16:22</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>00:16:27</t>
+          <t>00:16:24</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>We're gonna see what there is to see up here.</t>
+          <t>So right now we're climbing on top of the big bunker.</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>love</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -10580,91 +10580,91 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
+          <t>00:16:25</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
           <t>00:16:27</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>00:16:31</t>
-        </is>
-      </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Can't believe all these trees are growing on top of that concrete bunker.</t>
+          <t>We're gonna see what there is to see up here.</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>love</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>00:16:32</t>
+          <t>00:16:27</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>00:16:33</t>
+          <t>00:16:31</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>There's something up here.</t>
+          <t>Can't believe all these trees are growing on top of that concrete bunker.</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
+          <t>00:16:32</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
           <t>00:16:33</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>00:16:34</t>
-        </is>
-      </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>What the heck?</t>
+          <t>There's something up here.</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -10676,17 +10676,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
+          <t>00:16:33</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
           <t>00:16:34</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>00:16:37</t>
-        </is>
-      </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Oh, look at this.</t>
+          <t>What the heck?</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -10708,27 +10708,27 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>00:16:42</t>
+          <t>00:16:34</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>00:16:43</t>
+          <t>00:16:37</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Look at this, Tom.</t>
+          <t>Oh, look at this.</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -10740,27 +10740,27 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
+          <t>00:16:42</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
           <t>00:16:43</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>00:16:45</t>
-        </is>
-      </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>It's a machine gun bunker.</t>
+          <t>Look at this, Tom.</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>disapproval</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -10772,27 +10772,27 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>00:16:46</t>
+          <t>00:16:43</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>00:16:47</t>
+          <t>00:16:45</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Got the bulletproof plates on rails.</t>
+          <t>It's a machine gun bunker.</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>admiration</t>
+          <t>disapproval</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -10804,27 +10804,27 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
+          <t>00:16:46</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
           <t>00:16:47</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>00:16:50</t>
-        </is>
-      </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>And you can slide them over the entrances to protect you.</t>
+          <t>Got the bulletproof plates on rails.</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>admiration</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -10836,17 +10836,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
+          <t>00:16:47</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
           <t>00:16:50</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>00:16:53</t>
-        </is>
-      </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>This pillbox is on the roof of that complex.</t>
+          <t>And you can slide them over the entrances to protect you.</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -10868,17 +10868,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
+          <t>00:16:50</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
           <t>00:16:53</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>00:16:55</t>
-        </is>
-      </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>We explored that.</t>
+          <t>This pillbox is on the roof of that complex.</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -10900,27 +10900,27 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
+          <t>00:16:53</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
           <t>00:16:55</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>00:16:56</t>
-        </is>
-      </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Looks like it's in good shape.</t>
+          <t>We explored that.</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>approval</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -10932,27 +10932,27 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
+          <t>00:16:55</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
           <t>00:16:56</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>00:16:57</t>
-        </is>
-      </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>It's solid wood.</t>
+          <t>Looks like it's in good shape.</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>approval</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -10964,17 +10964,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>00:17:01</t>
+          <t>00:16:56</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>00:17:04</t>
+          <t>00:16:57</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Got the wooden shutters so that you can close it when it's cold.</t>
+          <t>It's solid wood.</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -10996,17 +10996,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>00:17:09</t>
+          <t>00:17:01</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>00:17:10</t>
+          <t>00:17:04</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Well, Dan, you can just.</t>
+          <t>Got the wooden shutters so that you can close it when it's cold.</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -11028,27 +11028,27 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>00:17:11</t>
+          <t>00:17:09</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>00:17:12</t>
+          <t>00:17:10</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>I wish this was like.</t>
+          <t>Well, Dan, you can just.</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>curiosity</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -11060,27 +11060,27 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>00:17:15</t>
+          <t>00:17:11</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>00:17:16</t>
+          <t>00:17:12</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Look at this.</t>
+          <t>I wish this was like.</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -11092,17 +11092,17 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>00:17:17</t>
+          <t>00:17:15</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>00:17:18</t>
+          <t>00:17:16</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Holy mackerel.</t>
+          <t>Look at this.</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -11124,27 +11124,27 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
+          <t>00:17:17</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
           <t>00:17:18</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>00:17:18</t>
-        </is>
-      </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Look at.</t>
+          <t>Holy mackerel.</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -11161,12 +11161,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>00:17:19</t>
+          <t>00:17:18</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Look at the size of this door.</t>
+          <t>Look at.</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -11188,27 +11188,27 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>00:17:24</t>
+          <t>00:17:18</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>00:17:25</t>
+          <t>00:17:19</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>This is just a big room.</t>
+          <t>Look at the size of this door.</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -11220,27 +11220,27 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>00:17:26</t>
+          <t>00:17:24</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>00:17:29</t>
+          <t>00:17:25</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>But this must be where they stored the artillery shells.</t>
+          <t>This is just a big room.</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>admiration</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -11252,27 +11252,27 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
+          <t>00:17:26</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
           <t>00:17:29</t>
         </is>
       </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>00:17:32</t>
-        </is>
-      </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Yeah, because you wouldn't want to store these where all the people were.</t>
+          <t>But this must be where they stored the artillery shells.</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>disapproval</t>
+          <t>admiration</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -11284,81 +11284,81 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
+          <t>00:17:29</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
           <t>00:17:32</t>
         </is>
       </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>00:17:37</t>
-        </is>
-      </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Because if it blows up, you don't want it to wipe out the whole base.</t>
+          <t>Yeah, because you wouldn't want to store these where all the people were.</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>nervousness</t>
+          <t>disapproval</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
+          <t>00:17:32</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
           <t>00:17:37</t>
         </is>
       </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>00:17:41</t>
-        </is>
-      </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Seems like there's building and bunkers all over the place, so I'm sure we've missed a few.</t>
+          <t>Because if it blows up, you don't want it to wipe out the whole base.</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>nervousness</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
+          <t>00:17:37</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
           <t>00:17:41</t>
         </is>
       </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>00:17:43</t>
-        </is>
-      </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>But we've searched all the trail and road that we can.</t>
+          <t>Seems like there's building and bunkers all over the place, so I'm sure we've missed a few.</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -11380,17 +11380,17 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>00:17:44</t>
+          <t>00:17:41</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>00:17:48</t>
+          <t>00:17:43</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Tommy's fingers are getting cold, so I think it's time to make camp.</t>
+          <t>But we've searched all the trail and road that we can.</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -11412,17 +11412,17 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>00:17:55</t>
+          <t>00:17:44</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>00:17:59</t>
+          <t>00:17:48</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Well, this was definitely the driest and cleanest of all the bunkers.</t>
+          <t>Tommy's fingers are getting cold, so I think it's time to make camp.</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -11444,27 +11444,27 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
+          <t>00:17:55</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
           <t>00:17:59</t>
         </is>
       </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>00:18:01</t>
-        </is>
-      </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>I think it was a good place to camp.</t>
+          <t>Well, this was definitely the driest and cleanest of all the bunkers.</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>approval</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -11476,17 +11476,17 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>00:18:02</t>
+          <t>00:17:59</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>00:18:04</t>
+          <t>00:18:01</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>It is so nice not to be rained on.</t>
+          <t>I think it is a good place to camp.</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>joy</t>
+          <t>approval</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -11508,17 +11508,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>00:18:07</t>
+          <t>00:18:02</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>00:18:17</t>
+          <t>00:18:04</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Let's get this stuff out of the way unless the wound.</t>
+          <t>It is so nice not to be rained on.</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -11528,135 +11528,135 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>excitement</t>
+          <t>joy</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>00:18:19</t>
+          <t>00:18:07</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>00:18:21</t>
+          <t>00:18:17</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Oh, my bag is a bit wet.</t>
+          <t>Let's get this stuff out of the way unless the wound.</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>embarrassment</t>
+          <t>excitement</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>00:18:24</t>
+          <t>00:18:19</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>00:18:28</t>
+          <t>00:18:21</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>My backpack is supposed to be waterproof, but it's getting pretty old and has some holes in it.</t>
+          <t>Oh, my bag is a bit wet.</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>sadness</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>disappointment</t>
+          <t>embarrassment</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
+          <t>00:18:24</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
           <t>00:18:28</t>
         </is>
       </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>00:18:31</t>
-        </is>
-      </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>And I got a lot of water in my bag, I think.</t>
+          <t>My backpack is supposed to be waterproof, but it's getting pretty old and has some holes in it.</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>sadness</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>disappointment</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
+          <t>00:18:28</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
           <t>00:18:31</t>
         </is>
       </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>00:18:34</t>
-        </is>
-      </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Luckily, the stuff sack for my sleeping bag stopped most the water.</t>
+          <t>And I got a lot of water in my bag, I think.</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -11668,27 +11668,27 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>00:18:35</t>
+          <t>00:18:31</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>00:18:38</t>
+          <t>00:18:34</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Pillow's a little wet on one side, but not bad.</t>
+          <t>Luckily, the stuff sack for my sleeping bag stopped most the water.</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pride</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -11700,17 +11700,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>00:18:48</t>
+          <t>00:18:35</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>00:18:49</t>
+          <t>00:18:38</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Lay down.</t>
+          <t>Pillow's a little wet on one side, but not bad.</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -11732,27 +11732,27 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>00:18:50</t>
+          <t>00:18:48</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>00:18:52</t>
+          <t>00:18:49</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Hey, Tom, does that feel better?</t>
+          <t>Lay down.</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -11764,27 +11764,27 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
+          <t>00:18:50</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
           <t>00:18:52</t>
         </is>
       </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>00:18:52</t>
-        </is>
-      </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>Hey, Tom, does that feel better?</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -11796,17 +11796,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>00:18:53</t>
+          <t>00:18:52</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>00:18:53</t>
+          <t>00:18:52</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -11833,22 +11833,22 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>00:18:55</t>
+          <t>00:18:53</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>I'm going to get you some hot chocolate, too.</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>curiosity</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -11860,27 +11860,27 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
+          <t>00:18:53</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
           <t>00:18:55</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>00:18:55</t>
-        </is>
-      </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>I'm going to get you some hot chocolate, too.</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -11892,17 +11892,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>00:18:56</t>
+          <t>00:18:55</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>00:19:02</t>
+          <t>00:18:55</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>All right, both of us out, huh?</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -11924,27 +11924,27 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
+          <t>00:18:56</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
           <t>00:19:02</t>
         </is>
       </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>00:19:03</t>
-        </is>
-      </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>We're fun.</t>
+          <t>All right, both of us out, huh?</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -11956,27 +11956,27 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>00:19:06</t>
+          <t>00:19:02</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>00:19:08</t>
+          <t>00:19:03</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Tommy's having hot chocolate.</t>
+          <t>We're fun.</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -11988,17 +11988,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
+          <t>00:19:06</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
           <t>00:19:08</t>
         </is>
       </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>00:19:10</t>
-        </is>
-      </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>I'm going to have some hot tang.</t>
+          <t>Tommy's having hot chocolate.</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -12020,27 +12020,27 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>00:19:19</t>
+          <t>00:19:08</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>00:19:24</t>
+          <t>00:19:10</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>For those of you that were alive in the 80s, you might remember that powdered drink mix tang.</t>
+          <t>I'm going to have some hot tang.</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -12052,17 +12052,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
+          <t>00:19:19</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
           <t>00:19:24</t>
         </is>
       </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>00:19:27</t>
-        </is>
-      </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Well, it's still alive and well here in Alaska, and we like to drink it hot.</t>
+          <t>For those of you that were alive in the 80s, you might remember that powdered drink, mixed tang.</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -12084,17 +12084,17 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>00:19:32</t>
+          <t>00:19:24</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>00:19:34</t>
+          <t>00:19:27</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Got to put some boiling water in a bottle here.</t>
+          <t>Well, it's still alive and well here in Alaska, and we like to drink it hot.</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -12116,27 +12116,27 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>00:19:35</t>
+          <t>00:19:32</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>00:19:36</t>
+          <t>00:19:34</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Did you feel that?</t>
+          <t>Got to put some boiling water in a bottle here.</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>caring</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -12148,27 +12148,27 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>00:19:37</t>
+          <t>00:19:35</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>00:19:38</t>
+          <t>00:19:36</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Put that in your bag.</t>
+          <t>Did you feel that?</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>caring</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -12180,27 +12180,27 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
+          <t>00:19:37</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
           <t>00:19:38</t>
         </is>
       </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>00:19:39</t>
-        </is>
-      </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Does that feel good?</t>
+          <t>Put that in your bag.</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -12212,27 +12212,27 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>00:19:40</t>
+          <t>00:19:38</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>00:19:41</t>
+          <t>00:19:39</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Yep.</t>
+          <t>Does that feel good?</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -12244,81 +12244,81 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>00:19:43</t>
+          <t>00:19:40</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>00:19:47</t>
+          <t>00:19:41</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>There's a hole in my rape pants right here, and this whole knee is soaked.</t>
+          <t>Yep.</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>anger</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>anger</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
+          <t>00:19:43</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
           <t>00:19:47</t>
         </is>
       </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>00:19:49</t>
-        </is>
-      </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Got some bread, flour and yeast.</t>
+          <t>There's a hole in my rape pants right here, and this whole knee is soaked.</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>anger</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>anger</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>strong</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>00:19:51</t>
+          <t>00:19:47</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>00:19:53</t>
+          <t>00:19:49</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Just seal that up, let it ferment.</t>
+          <t>Got some bread, flour and yeast.</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -12340,17 +12340,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>00:19:54</t>
+          <t>00:19:51</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>00:19:56</t>
+          <t>00:19:53</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>All right, Tom, let's see about dinner here.</t>
+          <t>Just seal that up, let it ferment.</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -12372,17 +12372,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>00:19:57</t>
+          <t>00:19:54</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>00:20:15</t>
+          <t>00:19:56</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>You want creamy pasta, chicken beef Stewart.</t>
+          <t>All right, Tom, let's see about dinner here.</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -12404,17 +12404,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>00:20:24</t>
+          <t>00:19:57</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>00:20:25</t>
+          <t>00:20:15</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>There we go.</t>
+          <t>You want creamy pasta, chicken beef Stewart.</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -12436,17 +12436,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
+          <t>00:20:24</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
           <t>00:20:25</t>
         </is>
       </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>00:20:26</t>
-        </is>
-      </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Nice little bit of fry bread.</t>
+          <t>There we go.</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -12468,17 +12468,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
+          <t>00:20:25</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
           <t>00:20:26</t>
         </is>
       </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>00:20:34</t>
-        </is>
-      </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Well, typically I like to eat this with some honey or butter or jam, but I forgot to bring all that, so we're gonna put a little powdered tang on it and see what happens.</t>
+          <t>Nice little bit of fry bread.</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -12500,27 +12500,27 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>00:20:39</t>
+          <t>00:20:26</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>00:20:42</t>
+          <t>00:20:34</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>It's a little weird with the tang on it, but it's not bad.</t>
+          <t>Well, typically I like to eat this with some honey or butter or jam, but I forgot to bring all that, so we're gonna put a little powdered tang on it and see what happens.</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -12532,17 +12532,17 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
+          <t>00:20:39</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
           <t>00:20:42</t>
         </is>
       </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>00:20:43</t>
-        </is>
-      </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>You like it?</t>
+          <t>It's a little weird with the tang on it, but it's not bad.</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -12564,27 +12564,27 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>00:20:44</t>
+          <t>00:20:42</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>00:20:45</t>
+          <t>00:20:43</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Warm bread's hard to beat, isn't it?</t>
+          <t>You like it?</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -12596,17 +12596,17 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>00:21:05</t>
+          <t>00:20:44</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>00:21:06</t>
+          <t>00:20:45</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Good morning, Tom.</t>
+          <t>Warm bread's hard to beat, isn't it?</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -12628,27 +12628,27 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>00:21:07</t>
+          <t>00:21:05</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>00:21:10</t>
+          <t>00:21:06</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>So what do you think of your first night sleeping in a World War II bunker?</t>
+          <t>Good morning, Tom.</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -12660,17 +12660,17 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>00:21:11</t>
+          <t>00:21:07</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>00:21:12</t>
+          <t>00:21:10</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>It was awesome.</t>
+          <t>So what do you think of your first night sleeping in a World War II bunker?</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -12680,61 +12680,61 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>admiration</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
+          <t>00:21:11</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
           <t>00:21:12</t>
         </is>
       </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>00:21:15</t>
-        </is>
-      </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>All right, it's time to get up.</t>
+          <t>It was awesome.</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>admiration</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>00:21:40</t>
+          <t>00:21:12</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>00:21:41</t>
+          <t>00:21:15</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Yeah, that's what I.</t>
+          <t>All right, it's time to get up.</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -12756,17 +12756,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>00:21:46</t>
+          <t>00:21:40</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>00:21:48</t>
+          <t>00:21:41</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>I think it's time to get up and start packing.</t>
+          <t>Yeah, that's what I.</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -12788,27 +12788,27 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>00:22:02</t>
+          <t>00:21:46</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>00:22:03</t>
+          <t>00:21:48</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Look at this.</t>
+          <t>I think it's time to get up and start packing.</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>confusion</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -12820,27 +12820,27 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
+          <t>00:22:02</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
           <t>00:22:03</t>
         </is>
       </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>00:22:05</t>
-        </is>
-      </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>I actually got a little bit of a view.</t>
+          <t>Look at this.</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>amusement</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -12852,17 +12852,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>00:22:06</t>
+          <t>00:22:03</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>00:22:07</t>
+          <t>00:22:05</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Nice.</t>
+          <t>I actually got a little bit of a view.</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -12872,7 +12872,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>approval</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -12884,27 +12884,27 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>00:22:15</t>
+          <t>00:22:06</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>00:22:17</t>
+          <t>00:22:07</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Now we just gotta wait for the water taxi to come pick us up.</t>
+          <t>Nice.</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>approval</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -12916,49 +12916,49 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
+          <t>00:22:15</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
           <t>00:22:17</t>
         </is>
       </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>00:22:19</t>
-        </is>
-      </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>It's nice to get out of that brush.</t>
+          <t>Now we just gotta wait for the water taxi to come pick us up.</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>joy</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
+          <t>00:22:17</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
           <t>00:22:19</t>
         </is>
       </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>00:22:22</t>
-        </is>
-      </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>I can finally take my rain gear off and start to dry out a little bit.</t>
+          <t>It's nice to get out of that brush.</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -12968,39 +12968,39 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>joy</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
+          <t>00:22:19</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
           <t>00:22:22</t>
         </is>
       </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>00:22:24</t>
-        </is>
-      </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Even though it's not raining.</t>
+          <t>I can finally take my rain gear off and start to dry out a little bit.</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>pride</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -13012,7 +13012,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>00:22:24</t>
+          <t>00:22:22</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -13022,17 +13022,17 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>That vegetation is so wet that walking through it gets you soaked.</t>
+          <t>Even though it's not raining, that vegetation is so wet that walking through it gets you soaked.</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>anger</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>disapproval</t>
+          <t>annoyance</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -13182,7 +13182,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>How's your day, Ben?</t>
+          <t>How's your day bed?</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>approval</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
